--- a/data/trans_orig/P15E_2023-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P15E_2023-Dificultad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>1624</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>356</v>
+        <v>389</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>3914</v>
+        <v>3646</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3383271733231992</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07419758970096467</v>
+        <v>0.08112134583515491</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8156870225121252</v>
+        <v>0.7596929572857869</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>6</v>
@@ -762,19 +762,19 @@
         <v>3050</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1097</v>
+        <v>1143</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5598</v>
+        <v>6019</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1896113961554009</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06821285780713197</v>
+        <v>0.07104470195427152</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3480477287534721</v>
+        <v>0.3742138948434729</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>9</v>
@@ -783,19 +783,19 @@
         <v>4673</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2428</v>
+        <v>2349</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>8243</v>
+        <v>8144</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.223782530547756</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.116269900831045</v>
+        <v>0.112466622069944</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3947096218331519</v>
+        <v>0.3899670174421063</v>
       </c>
     </row>
     <row r="5">
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>2971</v>
+        <v>2934</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1355333847142766</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6191382322204547</v>
+        <v>0.6114146562319605</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>4</v>
@@ -833,19 +833,19 @@
         <v>2615</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>944</v>
+        <v>682</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>5845</v>
+        <v>6000</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1625568962454874</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.05867197800228694</v>
+        <v>0.04237343515273816</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3633912919217646</v>
+        <v>0.3730459244889744</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>5</v>
@@ -854,19 +854,19 @@
         <v>3265</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1319</v>
+        <v>1245</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>7017</v>
+        <v>6572</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1563475749355873</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.06317925705432473</v>
+        <v>0.05959298977757023</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3360171900201971</v>
+        <v>0.3146901437454661</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>2525</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>620</v>
+        <v>635</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4235</v>
+        <v>4228</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.5261394419625242</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1291290547497565</v>
+        <v>0.1322783583033798</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.882388125379418</v>
+        <v>0.8810694363001089</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>19</v>
@@ -904,19 +904,19 @@
         <v>10420</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>7383</v>
+        <v>7120</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>12913</v>
+        <v>13226</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.6478317075991119</v>
+        <v>0.6478317075991118</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.4590234443929789</v>
+        <v>0.4426416780352468</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.8027714328240877</v>
+        <v>0.8222455010938238</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>22</v>
@@ -925,19 +925,19 @@
         <v>12945</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>9096</v>
+        <v>9177</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>16044</v>
+        <v>16269</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.6198698945166566</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.43555685323819</v>
+        <v>0.4394038808835508</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.7682565081413592</v>
+        <v>0.779027372154687</v>
       </c>
     </row>
     <row r="7">
@@ -1029,19 +1029,19 @@
         <v>4531</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1996</v>
+        <v>2126</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>7259</v>
+        <v>7522</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3874414984429826</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1706898462510213</v>
+        <v>0.1818021868997046</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6207279239598213</v>
+        <v>0.6431940506247159</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>18</v>
@@ -1050,19 +1050,19 @@
         <v>8563</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>5518</v>
+        <v>5379</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>12415</v>
+        <v>12742</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2431970018370168</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1567070014429119</v>
+        <v>0.1527749934229091</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3525918995844144</v>
+        <v>0.3618989995028781</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>25</v>
@@ -1071,19 +1071,19 @@
         <v>13094</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>8790</v>
+        <v>9113</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>17805</v>
+        <v>18319</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2791611895874158</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1874057004843311</v>
+        <v>0.1942895160885039</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3796135924692144</v>
+        <v>0.3905698819089078</v>
       </c>
     </row>
     <row r="9">
@@ -1103,16 +1103,16 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>2621</v>
+        <v>2458</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.06598503900122928</v>
+        <v>0.06598503900122926</v>
       </c>
       <c r="H9" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2240972226755664</v>
+        <v>0.2101368246149413</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>8</v>
@@ -1121,19 +1121,19 @@
         <v>3252</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>1470</v>
+        <v>1480</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>6426</v>
+        <v>6304</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.09237330141038527</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.04175613365116534</v>
+        <v>0.04203450568762897</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1825119174177819</v>
+        <v>0.1790404417603005</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>10</v>
@@ -1142,19 +1142,19 @@
         <v>4024</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>7342</v>
+        <v>7424</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.0857939694703795</v>
+        <v>0.08579396947037951</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.04286346321842899</v>
+        <v>0.0429698996432642</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1565283923072711</v>
+        <v>0.158274633867963</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>6392</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3621</v>
+        <v>3545</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>9015</v>
+        <v>8970</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5465734625557882</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3095874262717594</v>
+        <v>0.303112290194847</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.770803585538579</v>
+        <v>0.7669699416063481</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>44</v>
@@ -1192,19 +1192,19 @@
         <v>23395</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>19476</v>
+        <v>18957</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>26911</v>
+        <v>26680</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6644296967525979</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5531491281655208</v>
+        <v>0.5384073401557361</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7643003911637312</v>
+        <v>0.7577351681602842</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>55</v>
@@ -1213,19 +1213,19 @@
         <v>29786</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>24955</v>
+        <v>24757</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>34493</v>
+        <v>34290</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.6350448409422045</v>
+        <v>0.6350448409422047</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5320474326587538</v>
+        <v>0.5278288989509777</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7353941943777617</v>
+        <v>0.7310573320509511</v>
       </c>
     </row>
     <row r="11">
@@ -1317,19 +1317,19 @@
         <v>5062</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1895</v>
+        <v>2449</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8349</v>
+        <v>8535</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.356584628927556</v>
+        <v>0.3565846289275559</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1334964246880802</v>
+        <v>0.1725078256761134</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5881107728762236</v>
+        <v>0.601191174630857</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>14</v>
@@ -1338,19 +1338,19 @@
         <v>6608</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>3557</v>
+        <v>3894</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>9545</v>
+        <v>9967</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.3217215053012767</v>
+        <v>0.3217215053012766</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1731633037616737</v>
+        <v>0.1895920234760007</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.464686117057005</v>
+        <v>0.4852291548822578</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>20</v>
@@ -1359,19 +1359,19 @@
         <v>11671</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>7708</v>
+        <v>7755</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>15919</v>
+        <v>16177</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3359697843649707</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2219039563420953</v>
+        <v>0.2232349861723528</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4582730702421266</v>
+        <v>0.4656951111470535</v>
       </c>
     </row>
     <row r="13">
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>3609</v>
+        <v>2861</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04845601846953417</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2542077559280221</v>
+        <v>0.2015440718028289</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>5</v>
@@ -1409,19 +1409,19 @@
         <v>2491</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>825</v>
+        <v>766</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>5328</v>
+        <v>5309</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1212526905011011</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04014701216266436</v>
+        <v>0.03728879648568332</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.259419218267993</v>
+        <v>0.258459993727739</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>6</v>
@@ -1430,19 +1430,19 @@
         <v>3178</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1207</v>
+        <v>1225</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>6656</v>
+        <v>7146</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.09150127438782629</v>
+        <v>0.09150127438782628</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03473486113877042</v>
+        <v>0.03526102414743058</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1916191545753391</v>
+        <v>0.2057137607049715</v>
       </c>
     </row>
     <row r="14">
@@ -1459,19 +1459,19 @@
         <v>8447</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>5263</v>
+        <v>5090</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>11560</v>
+        <v>11395</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.5949593526029099</v>
+        <v>0.5949593526029098</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3706779187507183</v>
+        <v>0.3585501552771754</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8142894508142752</v>
+        <v>0.8026487612588106</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>23</v>
@@ -1480,19 +1480,19 @@
         <v>11441</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>8203</v>
+        <v>8119</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>14738</v>
+        <v>14621</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5570258041976223</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3993625657476532</v>
+        <v>0.3952980554892968</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7175498611793111</v>
+        <v>0.7118244677105378</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>38</v>
@@ -1501,19 +1501,19 @@
         <v>19888</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>15711</v>
+        <v>15578</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>24436</v>
+        <v>24395</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5725289412472031</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4522967965508609</v>
+        <v>0.4484503969809268</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7034651208045349</v>
+        <v>0.7022844311696201</v>
       </c>
     </row>
     <row r="15">
@@ -1605,19 +1605,19 @@
         <v>2494</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>724</v>
+        <v>796</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4972</v>
+        <v>5105</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3363850161002219</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.09761121922030926</v>
+        <v>0.107368559856593</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.670615585553669</v>
+        <v>0.6885702831159776</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>8</v>
@@ -1626,19 +1626,19 @@
         <v>4660</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2163</v>
+        <v>2318</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>7622</v>
+        <v>7674</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.3148529923211704</v>
+        <v>0.3148529923211705</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1461210254866716</v>
+        <v>0.1566364800087821</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5149762522334473</v>
+        <v>0.5184824313664268</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>12</v>
@@ -1647,19 +1647,19 @@
         <v>7154</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4285</v>
+        <v>3998</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>11099</v>
+        <v>10985</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3220388630763392</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1928883382266547</v>
+        <v>0.1799889413645583</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4996093628372337</v>
+        <v>0.4944641085511237</v>
       </c>
     </row>
     <row r="17">
@@ -1692,7 +1692,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2641</v>
+        <v>3643</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.04025743921243278</v>
@@ -1701,7 +1701,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.178446695139315</v>
+        <v>0.2461364022651095</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1</v>
@@ -1713,7 +1713,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3034</v>
+        <v>3079</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02682234560102529</v>
@@ -1722,7 +1722,7 @@
         <v>0</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1365744211167794</v>
+        <v>0.1386068558888466</v>
       </c>
     </row>
     <row r="18">
@@ -1739,19 +1739,19 @@
         <v>4920</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2442</v>
+        <v>2309</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>6690</v>
+        <v>6618</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.6636149838997781</v>
+        <v>0.6636149838997782</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3293844144463305</v>
+        <v>0.3114297168840227</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9023887807796908</v>
+        <v>0.8926314401434075</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>17</v>
@@ -1760,19 +1760,19 @@
         <v>9545</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>6527</v>
+        <v>6565</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>12075</v>
+        <v>12123</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.6448895684663967</v>
+        <v>0.6448895684663968</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.4410106225195116</v>
+        <v>0.4435821124526023</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.815843603374597</v>
+        <v>0.8190945538857342</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>24</v>
@@ -1781,19 +1781,19 @@
         <v>14465</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>10829</v>
+        <v>10663</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>17610</v>
+        <v>17870</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.6511387913226353</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.4874418373664595</v>
+        <v>0.4799716869848727</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.7927164331090401</v>
+        <v>0.8044119310748528</v>
       </c>
     </row>
     <row r="19">
@@ -1885,19 +1885,19 @@
         <v>13711</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>9456</v>
+        <v>9014</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>19706</v>
+        <v>18890</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3598254527762362</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2481653996792983</v>
+        <v>0.236564874111348</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.517164079978138</v>
+        <v>0.4957579479211308</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>46</v>
@@ -1906,19 +1906,19 @@
         <v>22881</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>17253</v>
+        <v>17335</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>29017</v>
+        <v>29123</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2641072768301131</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1991427493374885</v>
+        <v>0.2000913179707109</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3349217342277652</v>
+        <v>0.3361492062593038</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>66</v>
@@ -1927,19 +1927,19 @@
         <v>36592</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>29245</v>
+        <v>28988</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>45080</v>
+        <v>44679</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.2933458028520313</v>
+        <v>0.2933458028520312</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2344438579643115</v>
+        <v>0.232388912269547</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3613916662790591</v>
+        <v>0.3581713880580529</v>
       </c>
     </row>
     <row r="21">
@@ -1956,19 +1956,19 @@
         <v>2110</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>659</v>
+        <v>669</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>5231</v>
+        <v>5252</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.05537376340589534</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01729937671840832</v>
+        <v>0.01755410201406675</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1372761964041826</v>
+        <v>0.1378445680122045</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>18</v>
@@ -1977,19 +1977,19 @@
         <v>8954</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>5297</v>
+        <v>5386</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>13810</v>
+        <v>14349</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1033470335862158</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.06114535143810408</v>
+        <v>0.06217156888798599</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1594006182374425</v>
+        <v>0.1656189020969678</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>22</v>
@@ -1998,19 +1998,19 @@
         <v>11064</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>7148</v>
+        <v>7369</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>17379</v>
+        <v>16701</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.08869289193903976</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.0573064516218269</v>
+        <v>0.05907396844947373</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1393203021001706</v>
+        <v>0.1338855709297303</v>
       </c>
     </row>
     <row r="22">
@@ -2027,19 +2027,19 @@
         <v>22283</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>16445</v>
+        <v>16839</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>26995</v>
+        <v>27215</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.5848007838178685</v>
+        <v>0.5848007838178686</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.431573386854169</v>
+        <v>0.4419309500669605</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7084643805379055</v>
+        <v>0.7142238778586347</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>103</v>
@@ -2048,19 +2048,19 @@
         <v>54802</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>47801</v>
+        <v>46896</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>61161</v>
+        <v>60630</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.632545689583671</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5517441616947679</v>
+        <v>0.5412875728727466</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7059414628507493</v>
+        <v>0.6998218021333539</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>139</v>
@@ -2069,19 +2069,19 @@
         <v>77085</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>68733</v>
+        <v>69056</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>84580</v>
+        <v>84848</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.6179613052089291</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5510085547812702</v>
+        <v>0.5535932528550753</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.67804708300762</v>
+        <v>0.6801966978451957</v>
       </c>
     </row>
     <row r="23">
